--- a/Results/Calculation/dp-partial-elmo.xlsx
+++ b/Results/Calculation/dp-partial-elmo.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="G2">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="H2">
         <v>0.74</v>
       </c>
       <c r="I2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3">
         <v>164</v>
@@ -470,19 +470,19 @@
         <v>81</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0.72</v>
       </c>
       <c r="G3">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
         <v>0.82</v>
       </c>
       <c r="I3">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4">
+        <v>0.83</v>
+      </c>
+      <c r="G4">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.82</v>
-      </c>
-      <c r="H4">
-        <v>0.8100000000000001</v>
       </c>
       <c r="I4">
         <v>0.88</v>
